--- a/Documentation/édition/journal de travail.xlsx
+++ b/Documentation/édition/journal de travail.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal" sheetId="1" r:id="rId1"/>
+    <sheet name="Rapport" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Planification initiale</t>
   </si>
   <si>
-    <t>Mise en place du ClickUp</t>
-  </si>
-  <si>
     <t>Mise en place initiale de l'outil de gestion de projet.</t>
   </si>
   <si>
@@ -127,6 +125,18 @@
   </si>
   <si>
     <t>Rédaction du mail de début de projet.</t>
+  </si>
+  <si>
+    <t>Zoning</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Ajout de champs personnalisés.</t>
   </si>
 </sst>
 </file>
@@ -307,28 +317,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -346,6 +335,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -353,21 +349,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,10 +632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,10 +649,10 @@
     <col min="7" max="7" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -678,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
@@ -702,10 +684,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44319</v>
       </c>
@@ -734,8 +719,9 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44319</v>
       </c>
@@ -753,7 +739,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>12</v>
@@ -764,8 +750,9 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44319</v>
       </c>
@@ -792,8 +779,9 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44319</v>
       </c>
@@ -811,19 +799,20 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44319</v>
       </c>
@@ -850,8 +839,9 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44319</v>
       </c>
@@ -878,8 +868,9 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44319</v>
       </c>
@@ -900,14 +891,15 @@
         <v>14</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44319</v>
       </c>
@@ -928,16 +920,17 @@
         <v>14</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44319</v>
       </c>
@@ -958,16 +951,17 @@
         <v>14</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44319</v>
       </c>
@@ -985,19 +979,20 @@
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44319</v>
       </c>
@@ -1015,19 +1010,20 @@
         <v>1.3194444444444398E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44319</v>
       </c>
@@ -1045,19 +1041,20 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44319</v>
       </c>
@@ -1081,13 +1078,14 @@
         <v>15</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44319</v>
       </c>
@@ -1105,19 +1103,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44320</v>
       </c>
@@ -1135,19 +1134,20 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="G16" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44320</v>
       </c>
@@ -1165,19 +1165,20 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44320</v>
       </c>
@@ -1191,23 +1192,24 @@
         <v>0.38263888888888892</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E18" si="2">D18-C18</f>
+        <f t="shared" ref="E18:E21" si="2">D18-C18</f>
         <v>1.8055555555555602E-2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44320</v>
       </c>
@@ -1217,60 +1219,146 @@
       <c r="C19" s="11">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3749999999999944E-2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
@@ -1632,20 +1720,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Analyse"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Conception"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Communication"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Communication"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Implémentation"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Analyse"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
@@ -1661,4 +1749,18 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/édition/journal de travail.xlsx
+++ b/Documentation/édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,27 @@
   </si>
   <si>
     <t>Ajout de champs personnalisés.</t>
+  </si>
+  <si>
+    <t>Échange avec le chef de projet</t>
+  </si>
+  <si>
+    <t>Le projet se fera en 5 sprints de 1 semaine.</t>
+  </si>
+  <si>
+    <t>Souris défectueuse</t>
+  </si>
+  <si>
+    <t>Remplacement de la souris.</t>
+  </si>
+  <si>
+    <t>Modification des sprints.</t>
+  </si>
+  <si>
+    <t>Envoie d'un mail</t>
+  </si>
+  <si>
+    <t>Mail annonçant le changement du nombre de sprint précédemment cité.</t>
   </si>
 </sst>
 </file>
@@ -251,11 +272,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,7 +335,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -355,6 +499,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,1109 +784,1297 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>44319</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.375</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>D2-C2</f>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>44319</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.375</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E9" si="0">D3-C3</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>44319</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>44319</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>44319</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>8.6805555555555525E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44319</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.5625</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.58958333333333335</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44319</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
         <v>0.58958333333333335</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.59305555555555556</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>44319</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>3.5416666666666652E-2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>44319</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" ref="E10:E17" si="1">D10-C10</f>
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44319</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.64861111111111114</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0.65625</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44319</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
         <v>0.65625</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.6694444444444444</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>1.3194444444444398E-2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44319</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
         <v>0.6694444444444444</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44319</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44319</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44320</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44320</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44320</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>0.38263888888888892</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" ref="E18:E21" si="2">D18-C18</f>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E24" si="2">D18-C18</f>
         <v>1.8055555555555602E-2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44320</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
         <v>1.6666666666666663E-2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44320</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44320</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="2"/>
         <v>9.3749999999999944E-2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="A22" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="A23" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
+      <c r="A24" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E27" si="3">D25-C25</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
+      <c r="A26" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
+      <c r="A27" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="3"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="3"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="3"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="3"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="3"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="3"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="3"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="3"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="3"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="3"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="3"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="3"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="3"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="3"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="3"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="3"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="3"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="3"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="3"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="3"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="3"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="3"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="3"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="3"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="3"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="3"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="3"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="3"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="3"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="3"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="3"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="3"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="3"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="3"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="3"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="3"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="3"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="3"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="3"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="3"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="3"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="3"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="3"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="3"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="3"/>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="3"/>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="3"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="3"/>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="3"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="3"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="3"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="3"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="3"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="3"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="3"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="3"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="3"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="3"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="3"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="3"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="3"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="3"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="3"/>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="3"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="3"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="3"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="3"/>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="3"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="3"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="3"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="3"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="3"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="3"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="3"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="3"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="3"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="3"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="3"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="3"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="3"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="3"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="3"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="3"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="3"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="3"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="3"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="3"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="3"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="3"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="3"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="3"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="3"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="3"/>
+      <c r="E151" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Analyse"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Documentation/édition/journal de travail.xlsx
+++ b/Documentation/édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Mail annonçant le changement du nombre de sprint précédemment cité.</t>
+  </si>
+  <si>
+    <t>Correction du diagramme d'arborescence du site.</t>
+  </si>
+  <si>
+    <t>Diagramme: Arborescence du site: Utilisateur non authentifié, authentifié et administrateur.</t>
+  </si>
+  <si>
+    <t>Ajout des Wireframes.</t>
   </si>
 </sst>
 </file>
@@ -335,130 +344,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -784,7 +674,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1445,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E27" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E31" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1631,116 +1521,259 @@
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="17"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
@@ -2054,22 +2087,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/édition/journal de travail.xlsx
+++ b/Documentation/édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Ajout des Wireframes.</t>
+  </si>
+  <si>
+    <t>Concernant SwissCenter, le dossier de projet et le journal de travail.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1448,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E31" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E35" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1652,8 +1655,13 @@
       <c r="C32" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,38 +1677,90 @@
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -1708,12 +1768,23 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="19"/>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -2125,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/édition/journal de travail.xlsx
+++ b/Documentation/édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Concernant SwissCenter, le dossier de projet et le journal de travail.</t>
+  </si>
+  <si>
+    <t>Rédaction de l'étude de faisabilité.</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1451,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E35" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E37" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1775,10 +1778,15 @@
         <v>1</v>
       </c>
       <c r="C36" s="10">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="2"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1792,13 +1800,31 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -1818,13 +1844,43 @@
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="2"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="2"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="2"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
